--- a/data/councilor.xlsx
+++ b/data/councilor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/Documents/文件 - 王台中的MacBook Pro -  OffLine/MAC-92-WebSite/A7Kanban08/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban09/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2138230-7826-B846-B8F8-9AEA7FC6666C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F628D63-26C5-D94D-B8AB-7DA33D9ECD60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1620" windowWidth="26340" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2460" yWindow="500" windowWidth="26340" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1" sheetId="1" r:id="rId1"/>
@@ -204,22 +204,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>../_nuxt/assets/img/COU-01-01.jpeg</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>../_nuxt/assets/img/COU-01-02.jpeg</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>../_nuxt/assets/img/COU-01-03.jpeg</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>../_nuxt/assets/img/COU-01-04.jpeg</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -278,6 +262,18 @@
   <si>
     <t>https://linevoom.line.me/user/_dfRtFGFtqjyHMgWPxL9bYSVo0FauP0k4MerecnI?utm_medium=osx&amp;utm_source=desktop&amp;utm_campaign=OA_Profile</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>COU-01-01.jpeg</t>
+  </si>
+  <si>
+    <t>COU-01-02.jpeg</t>
+  </si>
+  <si>
+    <t>COU-01-03.jpeg</t>
+  </si>
+  <si>
+    <t>COU-01-04.jpeg</t>
   </si>
 </sst>
 </file>
@@ -1579,10 +1575,10 @@
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K5" sqref="K5"/>
+      <selection pane="bottomRight" activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -1609,7 +1605,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -1633,7 +1629,7 @@
         <v>8</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>9</v>
@@ -1642,7 +1638,7 @@
         <v>10</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>11</v>
@@ -1671,20 +1667,20 @@
         <v>17</v>
       </c>
       <c r="H2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="10" t="s">
         <v>51</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>55</v>
       </c>
       <c r="J2" s="9"/>
       <c r="K2" s="11" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>18</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>19</v>
@@ -1714,20 +1710,20 @@
         <v>23</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>24</v>
       </c>
       <c r="J3" s="7"/>
       <c r="K3" s="11" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>25</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="N3" s="8" t="s">
         <v>26</v>
@@ -1759,22 +1755,22 @@
         <v>32</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>33</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="N4" s="8" t="s">
         <v>34</v>
@@ -1804,22 +1800,22 @@
         <v>38</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>39</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>40</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="N5" s="8" t="s">
         <v>41</v>

--- a/data/councilor.xlsx
+++ b/data/councilor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban09/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F628D63-26C5-D94D-B8AB-7DA33D9ECD60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C0801DD-E252-0B40-ADCF-35A771305853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2460" yWindow="500" windowWidth="26340" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="66">
   <si>
     <t>title</t>
   </si>
@@ -274,6 +274,10 @@
   </si>
   <si>
     <t>COU-01-04.jpeg</t>
+  </si>
+  <si>
+    <t>https://liff.line.me/1645278921-kWRPP32q/?accountId=tsunghao</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -407,7 +411,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -434,9 +438,6 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1575,10 +1576,10 @@
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M1" sqref="M1:M1048576"/>
+      <selection pane="bottomRight" activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -1669,11 +1670,13 @@
       <c r="H2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="J2" s="9"/>
-      <c r="K2" s="11" t="s">
+      <c r="J2" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="K2" s="10" t="s">
         <v>56</v>
       </c>
       <c r="L2" s="4" t="s">
@@ -1716,7 +1719,7 @@
         <v>24</v>
       </c>
       <c r="J3" s="7"/>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="10" t="s">
         <v>57</v>
       </c>
       <c r="L3" s="4" t="s">
@@ -1757,13 +1760,13 @@
       <c r="H4" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K4" s="9" t="s">
         <v>55</v>
       </c>
       <c r="L4" s="4" t="s">
@@ -1805,10 +1808,10 @@
       <c r="I5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="10" t="s">
         <v>58</v>
       </c>
       <c r="L5" s="4" t="s">
@@ -1837,6 +1840,7 @@
     <hyperlink ref="K3" r:id="rId10" xr:uid="{C418CCFE-5343-DC4C-AB7A-2E6A1706D105}"/>
     <hyperlink ref="K5" r:id="rId11" xr:uid="{DA8A064C-D1F3-ED45-B856-6F0DAC735BA3}"/>
     <hyperlink ref="J5" r:id="rId12" xr:uid="{215DD8B9-A394-B04F-981C-BC898CABFBE3}"/>
+    <hyperlink ref="J2" r:id="rId13" xr:uid="{336E6D88-1E22-6343-92B2-BDB92117BFCC}"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup scale="72" orientation="portrait"/>
